--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_6_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_6_sawtooth_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.56000000000056</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09972680146710955</v>
+        <v>0.06466113311438937</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09972680146710955</v>
+        <v>0.06466113311438937</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.316868582276908</v>
+        <v>7.87980811040183</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.6556893204141794, 13.289426484967995]</t>
+          <t>[-0.9000431343184587, 16.65965935512212]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.07468928003670716</v>
+        <v>0.07735074142998388</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07468928003670716</v>
+        <v>0.07735074142998388</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.559789745926464</v>
+        <v>-1.308210754648002</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.018947895341543, -0.10063159651138509]</t>
+          <t>[-2.9183162988301583, 0.30189478953415483]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.03671526336338338</v>
+        <v>0.1087194613858316</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03671526336338338</v>
+        <v>0.1087194613858316</v>
       </c>
       <c r="T2" t="n">
-        <v>13.71510589918421</v>
+        <v>16.24865087674277</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.506612452106696, 17.923599346261717]</t>
+          <t>[11.391285212908304, 21.10601654057724]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.531145259001335e-08</v>
+        <v>2.499855833448805e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>4.531145259001335e-08</v>
+        <v>2.499855833448805e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>6.345225225225363</v>
+        <v>5.3946746746748</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4093693693693785</v>
+        <v>-1.244924924924958</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.28108108108135</v>
+        <v>12.03427427427456</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.56000000000056</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5130334758821384</v>
+        <v>0.766124218782408</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5130334758821384</v>
+        <v>0.766124218782408</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.489560840964206</v>
+        <v>2.6809784902019</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-5.603740191770264, 14.582861873698675]</t>
+          <t>[-6.802573793079127, 12.164530773482927]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3750815809414894</v>
+        <v>0.5719280558319944</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3750815809414894</v>
+        <v>0.5719280558319944</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.434000250287233</v>
+        <v>-0.1635263443310002</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.572448166486045, 1.7044476659115793]</t>
+          <t>[-3.3019742605298124, 2.974921571867812]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.3623380203440592</v>
+        <v>0.9168872069802345</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3623380203440592</v>
+        <v>0.9168872069802345</v>
       </c>
       <c r="T3" t="n">
-        <v>13.30034476925291</v>
+        <v>15.62785305384559</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.617741990809459, 18.982947547696366]</t>
+          <t>[10.531513460853002, 20.724192646838176]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.367987257767545e-05</v>
+        <v>1.70880366301418e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.367987257767545e-05</v>
+        <v>1.70880366301418e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>5.83351351351364</v>
+        <v>0.6743343343343469</v>
       </c>
       <c r="Y3" t="n">
-        <v>-6.933693693693844</v>
+        <v>-12.26769769769799</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.60072072072112</v>
+        <v>13.61636636636668</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.56000000000056</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1305825719202511</v>
+        <v>0.1976307122657684</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1305825719202511</v>
+        <v>0.1976307122657684</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.727049625999215</v>
+        <v>5.656081400652388</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.2737359554431675, 14.727835207441597]</t>
+          <t>[-2.728997117185095, 14.041159918489871]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.09728126147589289</v>
+        <v>0.1810464317000724</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09728126147589289</v>
+        <v>0.1810464317000724</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.723316090257464</v>
+        <v>-1.169842309444848</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.3963163822592364, -0.0503157982556921]</t>
+          <t>[-4.088158608275006, 1.7484739893853112]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.04376472868066905</v>
+        <v>0.4236961205504328</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04376472868066905</v>
+        <v>0.4236961205504328</v>
       </c>
       <c r="T4" t="n">
-        <v>12.41412603106579</v>
+        <v>11.94551902431916</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.653659783086056, 17.17459227904552]</t>
+          <t>[7.360467103017265, 16.530570945621065]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.953970824754904e-06</v>
+        <v>4.019744599403907e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.953970824754904e-06</v>
+        <v>4.019744599403907e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>7.010450450450605</v>
+        <v>4.824084084084195</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2046846846846897</v>
+        <v>-7.210190190190367</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.81621621621652</v>
+        <v>16.85835835835876</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.56000000000056</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3293950490160349</v>
+        <v>0.5553780859136814</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3293950490160349</v>
+        <v>0.5553780859136814</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.366048048030296</v>
+        <v>3.545034499159494</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.476025196215592, 15.208121292276186]</t>
+          <t>[-4.474128323435832, 11.564197321754822]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2779932119517823</v>
+        <v>0.3780000107089898</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2779932119517823</v>
+        <v>0.3780000107089898</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.251631971942235</v>
+        <v>-3.132158441416851</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.390079888141048, 0.8868159442565782]</t>
+          <t>[-6.270606357615662, 0.006289474781961069]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1553892392684166</v>
+        <v>0.05044157923114967</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1553892392684166</v>
+        <v>0.05044157923114967</v>
       </c>
       <c r="T5" t="n">
-        <v>13.24287699678552</v>
+        <v>11.85650235802803</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.215674212177994, 18.270079781393044]</t>
+          <t>[7.3828384424709625, 16.330166273585093]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.304048239671786e-06</v>
+        <v>2.963067348815684e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>3.304048239671786e-06</v>
+        <v>2.963067348815684e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>9.159639639639842</v>
+        <v>12.9160960960964</v>
       </c>
       <c r="Y5" t="n">
-        <v>-3.607567567567646</v>
+        <v>-0.02593593593593368</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.92684684684733</v>
+        <v>25.85812812812873</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.56000000000056</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08023253215453463</v>
+        <v>0.5893213474807361</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08023253215453463</v>
+        <v>0.5893213474807361</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>7.554882366133198</v>
+        <v>3.200315109422664</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.1266713822440302, 16.236436114510425]</t>
+          <t>[-4.747160828497975, 11.147791047343302]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0864615904991255</v>
+        <v>0.4216085226415764</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0864615904991255</v>
+        <v>0.4216085226415764</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.062947728483388</v>
+        <v>-2.842842601446619</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.974948062199698, -0.1509473947670772]</t>
+          <t>[-5.981290517645432, 0.2956053147521933]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0350754604436907</v>
+        <v>0.07473565414383554</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0350754604436907</v>
+        <v>0.07473565414383554</v>
       </c>
       <c r="T6" t="n">
-        <v>12.92048136469456</v>
+        <v>11.97658486112791</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.241978716454891, 17.59898401293422]</t>
+          <t>[7.744944106387861, 16.208225615867967]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.387225670557157e-06</v>
+        <v>8.67595846942848e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.387225670557157e-06</v>
+        <v>8.67595846942848e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>8.392072072072256</v>
+        <v>11.72304304304332</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.61405405405407</v>
+        <v>-1.21898898898902</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.17009009009044</v>
+        <v>24.66507507507566</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.56000000000056</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006694300541741138</v>
+        <v>0.1163604158616631</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006694300541741138</v>
+        <v>0.1163604158616631</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>11.09416535965735</v>
+        <v>5.979679634135163</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[2.5359708659909437, 19.652359853323752]</t>
+          <t>[-0.5411765876767287, 12.500535855947055]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0122236158157456</v>
+        <v>0.07133610719982064</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0122236158157456</v>
+        <v>0.07133610719982064</v>
       </c>
       <c r="P7" t="n">
-        <v>2.811395227536812</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.8679740102425808, 3.7548164448310435]</t>
+          <t>[-4.641632389087622, -1.496894998106848]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.100810368472651e-07</v>
+        <v>0.0002884548763550931</v>
       </c>
       <c r="S7" t="n">
-        <v>3.100810368472651e-07</v>
+        <v>0.0002884548763550931</v>
       </c>
       <c r="T7" t="n">
-        <v>12.90170846357815</v>
+        <v>10.18553809716461</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.239311557444276, 17.564105369712017]</t>
+          <t>[6.318977419223135, 14.052098775106085]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.335925458922915e-06</v>
+        <v>3.303612290173064e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.335925458922915e-06</v>
+        <v>3.303612290173064e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>14.12324324324355</v>
+        <v>12.65673673673703</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.28540540540563</v>
+        <v>6.172752752752897</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.96108108108147</v>
+        <v>19.14072072072117</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.56000000000056</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7500277302275487</v>
+        <v>0.1656281279553342</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7500277302275487</v>
+        <v>0.1656281279553342</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>2.78672216870545</v>
+        <v>6.025174348386287</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-7.102636412013903, 12.676080749424802]</t>
+          <t>[-2.4552788880328045, 14.505627584805378]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.5731585757663646</v>
+        <v>0.1593454093253039</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5731585757663646</v>
+        <v>0.1593454093253039</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.276789871070081</v>
+        <v>2.622710984077965</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-5.415237787268894, 0.8616580451287321]</t>
+          <t>[-0.3018947895341544, 5.547316757690085]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1509268568715167</v>
+        <v>0.07757842798683057</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1509268568715167</v>
+        <v>0.07757842798683057</v>
       </c>
       <c r="T8" t="n">
-        <v>13.39415902857185</v>
+        <v>14.44524077121784</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.227990628771622, 18.560327428372076]</t>
+          <t>[9.988777900346527, 18.90170364208916]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.37910926409657e-06</v>
+        <v>5.112460099709892e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>4.37910926409657e-06</v>
+        <v>5.112460099709892e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>9.261981981982188</v>
+        <v>15.09471471471507</v>
       </c>
       <c r="Y8" t="n">
-        <v>-3.505225225225299</v>
+        <v>3.034504504504577</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.02918918918968</v>
+        <v>27.15492492492557</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.97000000000031</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5680231253437609</v>
+        <v>0.5051921797727548</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5680231253437609</v>
+        <v>0.5051921797727548</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>3.313590827200121</v>
+        <v>3.586370982579948</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-4.742249160451628, 11.36943081485187]</t>
+          <t>[-3.903584050648041, 11.076326015807936]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.4117844782008269</v>
+        <v>0.3399990673772553</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4117844782008269</v>
+        <v>0.3399990673772553</v>
       </c>
       <c r="P9" t="n">
-        <v>3.113290017070967</v>
+        <v>3.050395269251351</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.018868424345884094, 6.245448458487817]</t>
+          <t>[-0.0503157982556921, 6.151106336758394]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.05133758800501997</v>
+        <v>0.0536737314059399</v>
       </c>
       <c r="S9" t="n">
-        <v>0.05133758800501997</v>
+        <v>0.0536737314059399</v>
       </c>
       <c r="T9" t="n">
-        <v>11.77496931374522</v>
+        <v>12.32889767863578</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.369193979273682, 16.180744648216763]</t>
+          <t>[7.996527709553651, 16.66126764771791]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.545789806296384e-06</v>
+        <v>7.800408934333092e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>2.545789806296384e-06</v>
+        <v>7.800408934333092e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>12.09297297297313</v>
+        <v>12.36378378378395</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1439639639639658</v>
+        <v>0.5051351351351414</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.04198198198229</v>
+        <v>24.22243243243275</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.97000000000031</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3238323728742742</v>
+        <v>0.2242315148794662</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3238323728742742</v>
+        <v>0.2242315148794662</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.441626401206036</v>
+        <v>5.859158850309872</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-3.6825655692948844, 12.565818371706957]</t>
+          <t>[-2.178563490374663, 13.896881190994407]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.276689780346792</v>
+        <v>0.1490067453610076</v>
       </c>
       <c r="O10" t="n">
-        <v>0.276689780346792</v>
+        <v>0.1490067453610076</v>
       </c>
       <c r="P10" t="n">
-        <v>2.157289850212811</v>
+        <v>-3.132158441416851</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.9685791164220783, 5.2831588168477]</t>
+          <t>[-5.761158900276778, -0.5031579825569237]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1713624292116149</v>
+        <v>0.0206153690236941</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1713624292116149</v>
+        <v>0.0206153690236941</v>
       </c>
       <c r="T10" t="n">
-        <v>13.75280372843408</v>
+        <v>13.47183681885621</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.60101110493571, 17.904596351932447]</t>
+          <t>[8.731596509386629, 18.212077128325788]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.131116277366175e-08</v>
+        <v>8.003449083471281e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>3.131116277366175e-08</v>
+        <v>8.003449083471281e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>15.74006006006026</v>
+        <v>11.97891891891908</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.815045045045096</v>
+        <v>1.924324324324349</v>
       </c>
       <c r="Z10" t="n">
-        <v>27.66507507507543</v>
+        <v>22.0335135135138</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.97000000000031</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1718030207253014</v>
+        <v>0.05677645688142607</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1718030207253014</v>
+        <v>0.05677645688142607</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.765160258336156</v>
+        <v>7.096822263044296</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-2.6332443239610175, 14.16356484063333]</t>
+          <t>[-0.9438929656749897, 15.137537491763581]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1736111642086036</v>
+        <v>0.08221640644084194</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1736111642086036</v>
+        <v>0.08221640644084194</v>
       </c>
       <c r="P11" t="n">
-        <v>2.35855304323558</v>
+        <v>2.396289891927349</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.7358685494895019, 5.452974635960662]</t>
+          <t>[-0.6478159025420407, 5.440395686396739]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1317512490601507</v>
+        <v>0.119859923239362</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1317512490601507</v>
+        <v>0.119859923239362</v>
       </c>
       <c r="T11" t="n">
-        <v>11.15059420979663</v>
+        <v>14.01479857602691</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.861784469826873, 15.43940394976638]</t>
+          <t>[9.929182413881101, 18.10041473817271]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.169166853529305e-06</v>
+        <v>1.390815262958256e-08</v>
       </c>
       <c r="W11" t="n">
-        <v>4.169166853529305e-06</v>
+        <v>1.390815262958256e-08</v>
       </c>
       <c r="X11" t="n">
-        <v>14.97225225225245</v>
+        <v>14.8654054054056</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.167207207207246</v>
+        <v>3.223243243243283</v>
       </c>
       <c r="Z11" t="n">
-        <v>26.77729729729764</v>
+        <v>26.50756756756792</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.97000000000031</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3220454026221713</v>
+        <v>0.1430980662279109</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3220454026221713</v>
+        <v>0.1430980662279109</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.985649654064667</v>
+        <v>7.95682913755773</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-3.609034868896134, 13.580334177025467]</t>
+          <t>[-3.0275320731220816, 18.94119034823754]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.2488175775829542</v>
+        <v>0.1515182300439994</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2488175775829542</v>
+        <v>0.1515182300439994</v>
       </c>
       <c r="P12" t="n">
-        <v>2.534658337130504</v>
+        <v>2.245342497160273</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.5975001042863468, 5.666816778547354]</t>
+          <t>[-0.8365001460008852, 5.327185140321431]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1101064066907524</v>
+        <v>0.14921725053085</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1101064066907524</v>
+        <v>0.14921725053085</v>
       </c>
       <c r="T12" t="n">
-        <v>13.06742345754679</v>
+        <v>15.97346741024579</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.41193053636255, 17.722916378731025]</t>
+          <t>[10.351288221520347, 21.595646598971236]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.018186201351412e-06</v>
+        <v>8.050963440364711e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>1.018186201351412e-06</v>
+        <v>8.050963440364711e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>14.3004204204206</v>
+        <v>15.4427027027029</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.351411411411442</v>
+        <v>3.656216216216263</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.24942942942977</v>
+        <v>27.22918918918955</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.97000000000031</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.617442774589303</v>
+        <v>0.4587042048679467</v>
       </c>
       <c r="I13" t="n">
-        <v>0.617442774589303</v>
+        <v>0.4587042048679467</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>2.968324090160476</v>
+        <v>4.143410614329328</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-4.8109934431110375, 10.747641623431988]</t>
+          <t>[-4.343820959729378, 12.630642188388034]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.4461967173263388</v>
+        <v>0.3307308707490555</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4461967173263388</v>
+        <v>0.3307308707490555</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06923720326535</v>
+        <v>3.025237370123504</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.0692107129334634, 5.207685119464163]</t>
+          <t>[-0.09434212172942313, 6.144816861976432]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1908959470323333</v>
+        <v>0.05703177616540023</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1908959470323333</v>
+        <v>0.05703177616540023</v>
       </c>
       <c r="T13" t="n">
-        <v>10.70991821338612</v>
+        <v>13.76574938316267</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.43225786144702, 14.987578565325212]</t>
+          <t>[9.084532248357652, 18.44696651796768]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>7.979302647287412e-06</v>
+        <v>4.065548222520476e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>7.979302647287412e-06</v>
+        <v>4.065548222520476e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>16.07597597597618</v>
+        <v>12.46000000000016</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.102972972973022</v>
+        <v>0.5291891891891982</v>
       </c>
       <c r="Z13" t="n">
-        <v>28.04897897897934</v>
+        <v>24.39081081081113</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.97000000000031</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04962414115118274</v>
+        <v>0.158979042779875</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04962414115118274</v>
+        <v>0.158979042779875</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>7.929979838831198</v>
+        <v>6.518061305994278</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.6132849685206239, 16.47324464618302]</t>
+          <t>[-1.8887776365410538, 14.92490024852961]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.06806585895550143</v>
+        <v>0.1253902192060186</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06806585895550143</v>
+        <v>0.1253902192060186</v>
       </c>
       <c r="P14" t="n">
-        <v>2.295658295415965</v>
+        <v>3.050395269251351</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.4465527095192696, 5.0378693003512]</t>
+          <t>[-0.006289474781961069, 6.107080013284663]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.09869546393492423</v>
+        <v>0.05045343724351303</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09869546393492423</v>
+        <v>0.05045343724351303</v>
       </c>
       <c r="T14" t="n">
-        <v>11.2352378060471</v>
+        <v>13.82529423311843</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.786003442261164, 15.684472169833041]</t>
+          <t>[9.087822126246174, 18.562766339990688]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>6.904149912889679e-06</v>
+        <v>4.740887835641416e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>6.904149912889679e-06</v>
+        <v>4.740887835641416e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>15.21219219219239</v>
+        <v>12.36378378378395</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.750810810810874</v>
+        <v>0.6735135135135213</v>
       </c>
       <c r="Z14" t="n">
-        <v>25.6735735735739</v>
+        <v>24.05405405405437</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.97000000000031</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1154559600771178</v>
+        <v>0.2420640081100154</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1154559600771178</v>
+        <v>0.2420640081100154</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>7.309961552868586</v>
+        <v>6.029347610164102</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-1.5298082025647481, 16.14973130830192]</t>
+          <t>[-3.5039354488172076, 15.562630669145411]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1027522280917557</v>
+        <v>0.2092657255712083</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1027522280917557</v>
+        <v>0.2092657255712083</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.905737349266235</v>
+        <v>-2.616421509296004</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-4.666790288215468, -1.1446844103170015]</t>
+          <t>[-5.7485799507128545, 0.5157369321208467]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.001774458769027376</v>
+        <v>0.09940625408881454</v>
       </c>
       <c r="S15" t="n">
-        <v>0.001774458769027376</v>
+        <v>0.09940625408881454</v>
       </c>
       <c r="T15" t="n">
-        <v>12.96735505246779</v>
+        <v>13.22240720783705</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[8.079694129278177, 17.855015975657405]</t>
+          <t>[8.207637009572828, 18.23717740610128]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.907424877962583e-06</v>
+        <v>3.249598435450807e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>2.907424877962583e-06</v>
+        <v>3.249598435450807e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>11.08522522522537</v>
+        <v>10.00648648648662</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.366906906906962</v>
+        <v>-1.972432432432457</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.80354354354377</v>
+        <v>21.98540540540569</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.97000000000031</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2806627034398763</v>
+        <v>0.4221048102806052</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2806627034398763</v>
+        <v>0.4221048102806052</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>5.442137135826891</v>
+        <v>4.031312911125454</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-2.946398435877586, 13.830672707531367]</t>
+          <t>[-4.248916434604764, 12.311542256855672]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.1979643946780603</v>
+        <v>0.3320394394302486</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1979643946780603</v>
+        <v>0.3320394394302486</v>
       </c>
       <c r="P16" t="n">
-        <v>3.025237370123504</v>
+        <v>2.522079387566581</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.012578949563923025, 6.063053689810932]</t>
+          <t>[-0.6037895790683088, 5.647948354201471]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.0509161302027239</v>
+        <v>0.1111339457288509</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0509161302027239</v>
+        <v>0.1111339457288509</v>
       </c>
       <c r="T16" t="n">
-        <v>15.75670832803137</v>
+        <v>13.89192490897879</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[10.963688018001147, 20.54972863806159]</t>
+          <t>[9.565058315461606, 18.218791502495968]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3.722055641475208e-08</v>
+        <v>6.322625711874252e-08</v>
       </c>
       <c r="W16" t="n">
-        <v>3.722055641475208e-08</v>
+        <v>6.322625711874252e-08</v>
       </c>
       <c r="X16" t="n">
-        <v>12.42888888888905</v>
+        <v>14.38432432432451</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.8397897897898012</v>
+        <v>2.429459459459485</v>
       </c>
       <c r="Z16" t="n">
-        <v>24.0179879879883</v>
+        <v>26.33918918918954</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.97000000000031</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2231313642026398</v>
+        <v>0.7497435671606568</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2231313642026398</v>
+        <v>0.7497435671606568</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>5.715928023413221</v>
+        <v>2.791510518315419</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-3.145407842945284, 14.577263889771727]</t>
+          <t>[-6.972531654225002, 12.55555269085584]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.2004993964678585</v>
+        <v>0.5676014309342099</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2004993964678585</v>
+        <v>0.5676014309342099</v>
       </c>
       <c r="P17" t="n">
-        <v>2.257921446724196</v>
+        <v>2.396289891927349</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-0.8679475199106932, 5.383790413359085]</t>
+          <t>[-0.7358685494895019, 5.5284483333442]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.1526498388197319</v>
+        <v>0.1303419368969401</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1526498388197319</v>
+        <v>0.1303419368969401</v>
       </c>
       <c r="T17" t="n">
-        <v>13.58753371584211</v>
+        <v>14.16427338838186</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[8.971961747040737, 18.203105684643475]</t>
+          <t>[8.94401739682531, 19.384529379938414]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.976726739018943e-07</v>
+        <v>1.929485641039008e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>3.976726739018943e-07</v>
+        <v>1.929485641039008e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>15.35615615615635</v>
+        <v>14.8654054054056</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.431141141141186</v>
+        <v>2.886486486486524</v>
       </c>
       <c r="Z17" t="n">
-        <v>27.28117117117152</v>
+        <v>26.84432432432468</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_6_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_6_sawtooth_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.91000000000061</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06466113311438937</v>
+        <v>0.3072563755807811</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06466113311438937</v>
+        <v>0.3072563755807811</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.87980811040183</v>
+        <v>4.364592798187187</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.9000431343184587, 16.65965935512212]</t>
+          <t>[-3.4638202005403116, 12.193005796914685]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.07735074142998388</v>
+        <v>0.2674237631857477</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07735074142998388</v>
+        <v>0.2674237631857477</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.308210754648002</v>
+        <v>-0.9182633181663862</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.9183162988301583, 0.30189478953415483]</t>
+          <t>[-4.000105961327545, 2.163579324994773]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1087194613858316</v>
+        <v>0.5514361872631532</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1087194613858316</v>
+        <v>0.5514361872631532</v>
       </c>
       <c r="T2" t="n">
-        <v>16.24865087674277</v>
+        <v>11.83706533819309</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[11.391285212908304, 21.10601654057724]</t>
+          <t>[7.748942083541745, 15.925188592844439]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.499855833448805e-08</v>
+        <v>5.545328587430731e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>2.499855833448805e-08</v>
+        <v>5.545328587430731e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>5.3946746746748</v>
+        <v>3.731111111111193</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.244924924924958</v>
+        <v>-8.791111111111302</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.03427427427456</v>
+        <v>16.25333333333369</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.91000000000061</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.766124218782408</v>
+        <v>0.176317963365221</v>
       </c>
       <c r="I3" t="n">
-        <v>0.766124218782408</v>
+        <v>0.176317963365221</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>2.6809784902019</v>
+        <v>5.456673184869636</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-6.802573793079127, 12.164530773482927]</t>
+          <t>[-2.299532893323441, 13.212879263062714]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.5719280558319944</v>
+        <v>0.1633783662560702</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5719280558319944</v>
+        <v>0.1633783662560702</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.1635263443310002</v>
+        <v>-1.320789704211925</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.3019742605298124, 2.974921571867812]</t>
+          <t>[-4.188790204786391, 1.5472107963625419]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.9168872069802345</v>
+        <v>0.3585907729190847</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9168872069802345</v>
+        <v>0.3585907729190847</v>
       </c>
       <c r="T3" t="n">
-        <v>15.62785305384559</v>
+        <v>14.7304191063154</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[10.531513460853002, 20.724192646838176]</t>
+          <t>[10.498508010932392, 18.962330201698414]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.70880366301418e-07</v>
+        <v>9.824924873669261e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>1.70880366301418e-07</v>
+        <v>9.824924873669261e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6743343343343469</v>
+        <v>5.366666666666781</v>
       </c>
       <c r="Y3" t="n">
-        <v>-12.26769769769799</v>
+        <v>-6.286666666666807</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.61636636636668</v>
+        <v>17.02000000000037</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.91000000000061</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1976307122657684</v>
+        <v>0.1238694497612094</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1976307122657684</v>
+        <v>0.1238694497612094</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.656081400652388</v>
+        <v>7.508393591951279</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.728997117185095, 14.041159918489871]</t>
+          <t>[-1.71908477454269, 16.735871958445248]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1810464317000724</v>
+        <v>0.1082132664109385</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1810464317000724</v>
+        <v>0.1082132664109385</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.169842309444848</v>
+        <v>-1.861684535460618</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.088158608275006, 1.7484739893853112]</t>
+          <t>[-3.6982111717933908, -0.02515789912784605]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.4236961205504328</v>
+        <v>0.04707030758308672</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4236961205504328</v>
+        <v>0.04707030758308672</v>
       </c>
       <c r="T4" t="n">
-        <v>11.94551902431916</v>
+        <v>14.62866860977528</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.360467103017265, 16.530570945621065]</t>
+          <t>[9.432574106637482, 19.824763112913075]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.019744599403907e-06</v>
+        <v>9.610211952892911e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>4.019744599403907e-06</v>
+        <v>9.610211952892911e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>4.824084084084195</v>
+        <v>7.564444444444607</v>
       </c>
       <c r="Y4" t="n">
-        <v>-7.210190190190367</v>
+        <v>0.1022222222222231</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.85835835835876</v>
+        <v>15.02666666666699</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.91000000000061</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5553780859136814</v>
+        <v>0.01425638128130913</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5553780859136814</v>
+        <v>0.01425638128130913</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.545034499159494</v>
+        <v>8.58489199265477</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.474128323435832, 11.564197321754822]</t>
+          <t>[1.010649981791783, 16.159134003517757]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.3780000107089898</v>
+        <v>0.02721523325693953</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3780000107089898</v>
+        <v>0.02721523325693953</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.132158441416851</v>
+        <v>-1.899421384152387</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-6.270606357615662, 0.006289474781961069]</t>
+          <t>[-3.081842643161158, -0.7170001251436169]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.05044157923114967</v>
+        <v>0.002279975528416633</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05044157923114967</v>
+        <v>0.002279975528416633</v>
       </c>
       <c r="T5" t="n">
-        <v>11.85650235802803</v>
+        <v>11.72116742698706</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.3828384424709625, 16.330166273585093]</t>
+          <t>[7.668201871291831, 15.774132982682293]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.963067348815684e-06</v>
+        <v>5.679434977867714e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>2.963067348815684e-06</v>
+        <v>5.679434977867714e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>12.9160960960964</v>
+        <v>7.717777777777947</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.02593593593593368</v>
+        <v>2.913333333333401</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.85812812812873</v>
+        <v>12.52222222222249</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.91000000000061</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5893213474807361</v>
+        <v>0.4911282645421979</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5893213474807361</v>
+        <v>0.4911282645421979</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3.200315109422664</v>
+        <v>4.42904702794783</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.747160828497975, 11.147791047343302]</t>
+          <t>[-5.1095403139920315, 13.96763436988769]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.4216085226415764</v>
+        <v>0.3546730834632661</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4216085226415764</v>
+        <v>0.3546730834632661</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.842842601446619</v>
+        <v>-1.861684535460618</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.981290517645432, 0.2956053147521933]</t>
+          <t>[-4.968685077749623, 1.2453160068283866]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.07473565414383554</v>
+        <v>0.2338030797514725</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07473565414383554</v>
+        <v>0.2338030797514725</v>
       </c>
       <c r="T6" t="n">
-        <v>11.97658486112791</v>
+        <v>15.0414943652514</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.744944106387861, 16.208225615867967]</t>
+          <t>[9.702229995885443, 20.380758734617352]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.67595846942848e-07</v>
+        <v>9.490666967870709e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>8.67595846942848e-07</v>
+        <v>9.490666967870709e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>11.72304304304332</v>
+        <v>7.564444444444607</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.21898898898902</v>
+        <v>-5.060000000000112</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.66507507507566</v>
+        <v>20.18888888888933</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.91000000000061</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1163604158616631</v>
+        <v>0.260852086151993</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1163604158616631</v>
+        <v>0.260852086151993</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.979679634135163</v>
+        <v>6.375221350891161</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.5411765876767287, 12.500535855947055]</t>
+          <t>[-3.2064076472390006, 15.956850349021323]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.07133610719982064</v>
+        <v>0.186940018748746</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07133610719982064</v>
+        <v>0.186940018748746</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.069263693597235</v>
+        <v>-2.654158357987773</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-4.641632389087622, -1.496894998106848]</t>
+          <t>[-5.742290475930893, 0.4339737599553466]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0002884548763550931</v>
+        <v>0.09029283865871229</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0002884548763550931</v>
+        <v>0.09029283865871229</v>
       </c>
       <c r="T7" t="n">
-        <v>10.18553809716461</v>
+        <v>13.31490589979809</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.318977419223135, 14.052098775106085]</t>
+          <t>[8.016709829201982, 18.61310197039419]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.303612290173064e-06</v>
+        <v>7.489949903183302e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>3.303612290173064e-06</v>
+        <v>7.489949903183302e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>12.65673673673703</v>
+        <v>10.78444444444468</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.172752752752897</v>
+        <v>-1.763333333333371</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.14072072072117</v>
+        <v>23.33222222222273</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.91000000000061</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1656281279553342</v>
+        <v>0.3827300333816873</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1656281279553342</v>
+        <v>0.3827300333816873</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.025174348386287</v>
+        <v>4.158563757353366</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.4552788880328045, 14.505627584805378]</t>
+          <t>[-3.407923857519771, 11.725051372226503]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1593454093253039</v>
+        <v>0.2741948150094127</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1593454093253039</v>
+        <v>0.2741948150094127</v>
       </c>
       <c r="P8" t="n">
-        <v>2.622710984077965</v>
+        <v>-3.031526844905466</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.3018947895341544, 5.547316757690085]</t>
+          <t>[-6.13852738719447, 0.07547369738353815]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.07757842798683057</v>
+        <v>0.05558454327854023</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07757842798683057</v>
+        <v>0.05558454327854023</v>
       </c>
       <c r="T8" t="n">
-        <v>14.44524077121784</v>
+        <v>9.718098801725542</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.988777900346527, 18.90170364208916]</t>
+          <t>[5.620826051698721, 13.815371551752364]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.112460099709892e-08</v>
+        <v>1.924562573196731e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.112460099709892e-08</v>
+        <v>1.924562573196731e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>15.09471471471507</v>
+        <v>12.31777777777804</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.034504504504577</v>
+        <v>-0.306666666666672</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.15492492492557</v>
+        <v>24.94222222222276</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.03000000000032</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5051921797727548</v>
+        <v>0.5139468732141769</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5051921797727548</v>
+        <v>0.5139468732141769</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>3.586370982579948</v>
+        <v>3.417371296880613</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.903584050648041, 11.076326015807936]</t>
+          <t>[-4.48185431613099, 11.316596909892215]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3399990673772553</v>
+        <v>0.388191699254413</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3399990673772553</v>
+        <v>0.388191699254413</v>
       </c>
       <c r="P9" t="n">
-        <v>3.050395269251351</v>
+        <v>2.471763589310888</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.0503157982556921, 6.151106336758394]</t>
+          <t>[-0.6666843268879239, 5.6102115055097]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0536737314059399</v>
+        <v>0.119683753742476</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0536737314059399</v>
+        <v>0.119683753742476</v>
       </c>
       <c r="T9" t="n">
-        <v>12.32889767863578</v>
+        <v>9.847241553943228</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.996527709553651, 16.66126764771791]</t>
+          <t>[5.664271847667649, 14.030211260218806]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.800408934333092e-07</v>
+        <v>2.164374980928585e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>7.800408934333092e-07</v>
+        <v>2.164374980928585e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>12.36378378378395</v>
+        <v>14.72234234234256</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5051351351351414</v>
+        <v>2.599489489489528</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.22243243243275</v>
+        <v>26.84519519519559</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.03000000000032</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2242315148794662</v>
+        <v>0.5393950820550908</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2242315148794662</v>
+        <v>0.5393950820550908</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.859158850309872</v>
+        <v>3.347031222623714</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.178563490374663, 13.896881190994407]</t>
+          <t>[-4.402491182950257, 11.096553628197684]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1490067453610076</v>
+        <v>0.388974686522785</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1490067453610076</v>
+        <v>0.388974686522785</v>
       </c>
       <c r="P10" t="n">
-        <v>-3.132158441416851</v>
+        <v>2.786237328408966</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-5.761158900276778, -0.5031579825569237]</t>
+          <t>[-0.33963163822592346, 5.912106295043855]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0206153690236941</v>
+        <v>0.07932858317902114</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0206153690236941</v>
+        <v>0.07932858317902114</v>
       </c>
       <c r="T10" t="n">
-        <v>13.47183681885621</v>
+        <v>11.57026964812762</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.731596509386629, 18.212077128325788]</t>
+          <t>[7.3248145291881475, 15.8157247670671]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.003449083471281e-07</v>
+        <v>1.777866208030332e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>8.003449083471281e-07</v>
+        <v>1.777866208030332e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>11.97891891891908</v>
+        <v>13.50762762762782</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.924324324324349</v>
+        <v>1.433363363363384</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.0335135135138</v>
+        <v>25.58189189189227</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.03000000000032</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05677645688142607</v>
+        <v>0.5925413451929089</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05677645688142607</v>
+        <v>0.5925413451929089</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>7.096822263044296</v>
+        <v>3.285761467936672</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.9438929656749897, 15.137537491763581]</t>
+          <t>[-4.787725299761657, 11.359248235635]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.08221640644084194</v>
+        <v>0.4167058786774702</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08221640644084194</v>
+        <v>0.4167058786774702</v>
       </c>
       <c r="P11" t="n">
-        <v>2.396289891927349</v>
+        <v>2.76107942928112</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.6478159025420407, 5.440395686396739]</t>
+          <t>[-0.3710790121357306, 5.893237870697971]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.119859923239362</v>
+        <v>0.08258099832224097</v>
       </c>
       <c r="S11" t="n">
-        <v>0.119859923239362</v>
+        <v>0.08258099832224097</v>
       </c>
       <c r="T11" t="n">
-        <v>14.01479857602691</v>
+        <v>12.84221865949005</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.929182413881101, 18.10041473817271]</t>
+          <t>[8.313987016929385, 17.370450302050706]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.390815262958256e-08</v>
+        <v>8.338497339277495e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>1.390815262958256e-08</v>
+        <v>8.338497339277495e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>14.8654054054056</v>
+        <v>13.604804804805</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.223243243243283</v>
+        <v>1.506246246246265</v>
       </c>
       <c r="Z11" t="n">
-        <v>26.50756756756792</v>
+        <v>25.70336336336374</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.03000000000032</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1430980662279109</v>
+        <v>0.1507209161664884</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1430980662279109</v>
+        <v>0.1507209161664884</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>7.95682913755773</v>
+        <v>6.152632246536262</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-3.0275320731220816, 18.94119034823754]</t>
+          <t>[-1.8817385746644604, 14.187003067736985]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1515182300439994</v>
+        <v>0.1299854392404935</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1515182300439994</v>
+        <v>0.1299854392404935</v>
       </c>
       <c r="P12" t="n">
-        <v>2.245342497160273</v>
+        <v>2.673026782333658</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.8365001460008852, 5.327185140321431]</t>
+          <t>[-0.35850006257180844, 5.7045536272391235]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.14921725053085</v>
+        <v>0.08250807574905727</v>
       </c>
       <c r="S12" t="n">
-        <v>0.14921725053085</v>
+        <v>0.08250807574905727</v>
       </c>
       <c r="T12" t="n">
-        <v>15.97346741024579</v>
+        <v>13.19186629346876</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[10.351288221520347, 21.595646598971236]</t>
+          <t>[8.797908827735517, 17.585823759202007]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.050963440364711e-07</v>
+        <v>2.659884101863241e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>8.050963440364711e-07</v>
+        <v>2.659884101863241e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>15.4427027027029</v>
+        <v>13.94492492492513</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.656216216216263</v>
+        <v>2.235075075075107</v>
       </c>
       <c r="Z12" t="n">
-        <v>27.22918918918955</v>
+        <v>25.65477477477515</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.03000000000032</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4587042048679467</v>
+        <v>0.2347913625076898</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4587042048679467</v>
+        <v>0.2347913625076898</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>4.143410614329328</v>
+        <v>6.042913579196365</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-4.343820959729378, 12.630642188388034]</t>
+          <t>[-2.571575215340556, 14.657402373733287]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.3307308707490555</v>
+        <v>0.1645769159700927</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3307308707490555</v>
+        <v>0.1645769159700927</v>
       </c>
       <c r="P13" t="n">
-        <v>3.025237370123504</v>
+        <v>3.062974218815274</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.09434212172942313, 6.144816861976432]</t>
+          <t>[0.3459211130078854, 5.7800273246226626]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.05703177616540023</v>
+        <v>0.02801181192741464</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05703177616540023</v>
+        <v>0.02801181192741464</v>
       </c>
       <c r="T13" t="n">
-        <v>13.76574938316267</v>
+        <v>11.09967030784787</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[9.084532248357652, 18.44696651796768]</t>
+          <t>[6.152106117539553, 16.047234498156193]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.065548222520476e-07</v>
+        <v>4.482061023036721e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>4.065548222520476e-07</v>
+        <v>4.482061023036721e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>12.46000000000016</v>
+        <v>12.43867867867886</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.5291891891891982</v>
+        <v>1.943543543543571</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.39081081081113</v>
+        <v>22.93381381381415</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.03000000000032</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.158979042779875</v>
+        <v>0.2239523551648208</v>
       </c>
       <c r="I14" t="n">
-        <v>0.158979042779875</v>
+        <v>0.2239523551648208</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.518061305994278</v>
+        <v>5.095564948395959</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.8887776365410538, 14.92490024852961]</t>
+          <t>[-2.5592867071405294, 12.750416603932447]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1253902192060186</v>
+        <v>0.1867413279451504</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1253902192060186</v>
+        <v>0.1867413279451504</v>
       </c>
       <c r="P14" t="n">
-        <v>3.050395269251351</v>
+        <v>2.773658378845043</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.006289474781961069, 6.107080013284663]</t>
+          <t>[-0.1509473947670772, 5.6982641524571624]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.05045343724351303</v>
+        <v>0.06249955453991807</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05045343724351303</v>
+        <v>0.06249955453991807</v>
       </c>
       <c r="T14" t="n">
-        <v>13.82529423311843</v>
+        <v>12.15703119505687</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[9.087822126246174, 18.562766339990688]</t>
+          <t>[8.046670248230328, 16.267392141883416]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.740887835641416e-07</v>
+        <v>3.616311181620091e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>4.740887835641416e-07</v>
+        <v>3.616311181620091e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>12.36378378378395</v>
+        <v>13.55621621621641</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6735135135135213</v>
+        <v>2.2593693693694</v>
       </c>
       <c r="Z14" t="n">
-        <v>24.05405405405437</v>
+        <v>24.85306306306342</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.03000000000032</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2420640081100154</v>
+        <v>0.386280180507826</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2420640081100154</v>
+        <v>0.386280180507826</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.029347610164102</v>
+        <v>4.154174551193253</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-3.5039354488172076, 15.562630669145411]</t>
+          <t>[-3.493604015789618, 11.801953118176124]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.2092657255712083</v>
+        <v>0.2797613945642468</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2092657255712083</v>
+        <v>0.2797613945642468</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.616421509296004</v>
+        <v>-2.930895248394081</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-5.7485799507128545, 0.5157369321208467]</t>
+          <t>[-6.019027366337201, 0.15723686954903826]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.09940625408881454</v>
+        <v>0.06231455231450367</v>
       </c>
       <c r="S15" t="n">
-        <v>0.09940625408881454</v>
+        <v>0.06231455231450367</v>
       </c>
       <c r="T15" t="n">
-        <v>13.22240720783705</v>
+        <v>11.89100831818393</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[8.207637009572828, 18.23717740610128]</t>
+          <t>[7.673767728661561, 16.108248907706297]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.249598435450807e-06</v>
+        <v>9.3313718263488e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>3.249598435450807e-06</v>
+        <v>9.3313718263488e-07</v>
       </c>
       <c r="X15" t="n">
-        <v>10.00648648648662</v>
+        <v>11.32114114114131</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1.972432432432457</v>
+        <v>-0.6073573573573636</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.98540540540569</v>
+        <v>23.24963963963998</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.03000000000032</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4221048102806052</v>
+        <v>0.1746424433637463</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4221048102806052</v>
+        <v>0.1746424433637463</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>4.031312911125454</v>
+        <v>7.07895812693736</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-4.248916434604764, 12.311542256855672]</t>
+          <t>[-3.3567137758372496, 17.51463002971197]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.3320394394302486</v>
+        <v>0.1786489042413915</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3320394394302486</v>
+        <v>0.1786489042413915</v>
       </c>
       <c r="P16" t="n">
-        <v>2.522079387566581</v>
+        <v>2.408868841491273</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.6037895790683088, 5.647948354201471]</t>
+          <t>[-0.6603948521059619, 5.478132535088508]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1111339457288509</v>
+        <v>0.1209414609551336</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1111339457288509</v>
+        <v>0.1209414609551336</v>
       </c>
       <c r="T16" t="n">
-        <v>13.89192490897879</v>
+        <v>12.86273658554834</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[9.565058315461606, 18.218791502495968]</t>
+          <t>[7.573929506416519, 18.151543664680162]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>6.322625711874252e-08</v>
+        <v>1.289078345467765e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>6.322625711874252e-08</v>
+        <v>1.289078345467765e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>14.38432432432451</v>
+        <v>14.9652852852855</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.429459459459485</v>
+        <v>3.109669669669715</v>
       </c>
       <c r="Z16" t="n">
-        <v>26.33918918918954</v>
+        <v>26.82090090090129</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>24.03000000000032</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7497435671606568</v>
+        <v>0.287760557462811</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7497435671606568</v>
+        <v>0.287760557462811</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>2.791510518315419</v>
+        <v>4.851325783262372</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-6.972531654225002, 12.55555269085584]</t>
+          <t>[-3.3416510852210592, 13.044302651745802]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.5676014309342099</v>
+        <v>0.2392707816363231</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5676014309342099</v>
+        <v>0.2392707816363231</v>
       </c>
       <c r="P17" t="n">
-        <v>2.396289891927349</v>
+        <v>2.03150035457358</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-0.7358685494895019, 5.5284483333442]</t>
+          <t>[-1.0943686120613094, 5.157369321208469]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.1303419368969401</v>
+        <v>0.1971915697935707</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1303419368969401</v>
+        <v>0.1971915697935707</v>
       </c>
       <c r="T17" t="n">
-        <v>14.16427338838186</v>
+        <v>11.91832981355616</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[8.94401739682531, 19.384529379938414]</t>
+          <t>[7.583306614950434, 16.253353012161885]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.929485641039008e-06</v>
+        <v>1.509433205759692e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>1.929485641039008e-06</v>
+        <v>1.509433205759692e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>14.8654054054056</v>
+        <v>16.42294294294318</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.886486486486524</v>
+        <v>4.348678678678743</v>
       </c>
       <c r="Z17" t="n">
-        <v>26.84432432432468</v>
+        <v>28.49720720720762</v>
       </c>
     </row>
   </sheetData>
